--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
@@ -1292,6 +1292,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TbAccount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>account.xlsx</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>账号测试表</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
@@ -1293,44 +1293,86 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>TbAccount</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>account.xlsx</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>账号测试表</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>TbDoll</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Doll</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Doll.xlsx</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>玩偶表</t>
         </is>
       </c>
     </row>

--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="15855" windowHeight="8145" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
@@ -1365,7 +1365,7 @@
           <t>map</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
@@ -1373,6 +1373,216 @@
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>玩偶表</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TbDrop</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drop</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Drop.xlsx</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>掉落包表</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TbDropGroup</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DropGroup</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DropGroup.xlsx</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>掉落组表</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TbDropItem</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DropItem</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DropItem.xlsx</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>掉落物品表</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TbGacha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gacha</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gacha.xlsx</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>抽卡配置表</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TbGachaPity</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GachaPity</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GachaPity.xlsx</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>抽卡保底表</t>
         </is>
       </c>
     </row>

--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
@@ -1377,212 +1377,254 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>TbDrop</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Drop</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Drop.xlsx</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>掉落包表</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>TbDropGroup</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>DropGroup</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>DropGroup.xlsx</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>掉落组表</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>TbDropItem</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>DropItem</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>DropItem.xlsx</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>掉落物品表</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>TbGacha</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Gacha</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Gacha.xlsx</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>抽卡配置表</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>TbGachaPity</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>GachaPity</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>GachaPity.xlsx</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>抽卡保底表</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>TbSmeltActivity</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>SmeltActivity</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>SmeltActivity.xlsx</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>熔炼活动表</t>
         </is>
       </c>
     </row>

--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1015,7 +1015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
@@ -1622,9 +1622,93 @@
           <t>c;s</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>熔炼活动表</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TbActivity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Activity.xlsx</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>活动配置表</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TbActivityStage</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ActivityStage</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ActivityStage.xlsx</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>活动阶段配置表</t>
         </is>
       </c>
     </row>
